--- a/biology/Botanique/Joyeux_enfants_de_la_Bourgogne/Joyeux_enfants_de_la_Bourgogne.xlsx
+++ b/biology/Botanique/Joyeux_enfants_de_la_Bourgogne/Joyeux_enfants_de_la_Bourgogne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Joyeux enfants de la Bourgogne ou La bourguignonne est une chanson traditionnelle aux origines bourguignonnes. Comme nombre de chansons populaires, la mélodie est simple et répétitive.
@@ -517,8 +529,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Variante de 1947, chantée par les Cadets de Bourgogne
-Couplet 1
+          <t>Variante de 1947, chantée par les Cadets de Bourgogne</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Couplet 1
 Au sein d'une vigne
 J'ai reçu le jour.
 Ma mère était digne
@@ -574,9 +591,43 @@
 J'veux êtr' dans ma cave,
 Tout près de mon vin,
 Dans un'pose grave,
-Le nez sous l'robin.
-Variante contemporaine
-Refrain
+Le nez sous l'robin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Joyeux_enfants_de_la_Bourgogne</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joyeux_enfants_de_la_Bourgogne</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Paroles</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Variante contemporaine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Refrain
 Joyeux enfants de la Bourgogne,
 Je n'ai jamais eu de guignon.
 Quand je vois rougir ma trogne,
